--- a/Code/Results/Cases/Case_1_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.262673997600631</v>
+        <v>7.791024514463149</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.128637910097256</v>
+        <v>10.01111283468003</v>
       </c>
       <c r="E2">
-        <v>11.34152321330043</v>
+        <v>14.00626619514807</v>
       </c>
       <c r="F2">
-        <v>20.61966053337628</v>
+        <v>28.77672641412201</v>
       </c>
       <c r="G2">
-        <v>21.54173802084706</v>
+        <v>27.65552021426359</v>
       </c>
       <c r="H2">
-        <v>8.366902031184056</v>
+        <v>14.00198121041143</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.292868012693129</v>
+        <v>9.762207578314579</v>
       </c>
       <c r="K2">
-        <v>15.82229300464439</v>
+        <v>10.35965400867802</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.3409108756761</v>
+        <v>18.02549802065435</v>
       </c>
       <c r="O2">
-        <v>13.68795544341133</v>
+        <v>21.16853553241575</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.904522399190517</v>
+        <v>7.718250230697997</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.76414472697409</v>
+        <v>9.955422248793003</v>
       </c>
       <c r="E3">
-        <v>10.85671455054055</v>
+        <v>13.94238617244795</v>
       </c>
       <c r="F3">
-        <v>20.13173062466328</v>
+        <v>28.7915958502273</v>
       </c>
       <c r="G3">
-        <v>20.93913899987185</v>
+        <v>27.66304705817157</v>
       </c>
       <c r="H3">
-        <v>8.381967732626237</v>
+        <v>14.04237902774122</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.177329884694282</v>
+        <v>9.766875411747282</v>
       </c>
       <c r="K3">
-        <v>14.90717337310551</v>
+        <v>9.976793225029994</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.46551091069717</v>
+        <v>18.0720333991718</v>
       </c>
       <c r="O3">
-        <v>13.5787482504879</v>
+        <v>21.22380505608925</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.677879876043677</v>
+        <v>7.675042152190723</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.534820368467375</v>
+        <v>9.922859528833959</v>
       </c>
       <c r="E4">
-        <v>10.55398196703283</v>
+        <v>13.90595327354747</v>
       </c>
       <c r="F4">
-        <v>19.84397093720136</v>
+        <v>28.80788573680208</v>
       </c>
       <c r="G4">
-        <v>20.58523576042476</v>
+        <v>27.67677249694476</v>
       </c>
       <c r="H4">
-        <v>8.396788934184755</v>
+        <v>14.06944064302012</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.108685854402422</v>
+        <v>9.771286968313774</v>
       </c>
       <c r="K4">
-        <v>14.31511904653591</v>
+        <v>9.734595137235482</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.54550173793346</v>
+        <v>18.10238535455759</v>
       </c>
       <c r="O4">
-        <v>13.52341943858337</v>
+        <v>21.26237707074541</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.58395984357079</v>
+        <v>7.657825488934114</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.44011388014199</v>
+        <v>9.910011044993201</v>
       </c>
       <c r="E5">
-        <v>10.42952996444853</v>
+        <v>13.8918200475837</v>
       </c>
       <c r="F5">
-        <v>19.72978637986025</v>
+        <v>28.81632367889824</v>
       </c>
       <c r="G5">
-        <v>20.44520444417268</v>
+        <v>27.68465135212408</v>
       </c>
       <c r="H5">
-        <v>8.404182866530196</v>
+        <v>14.08103585604695</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.08131243680712</v>
+        <v>9.773473835331908</v>
       </c>
       <c r="K5">
-        <v>14.06634306984565</v>
+        <v>9.634246076997725</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.57896792587954</v>
+        <v>18.11520225271807</v>
       </c>
       <c r="O5">
-        <v>13.50374683157321</v>
+        <v>21.27925897922249</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.568274468332072</v>
+        <v>7.654990857280001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.424316419875337</v>
+        <v>9.907903301509888</v>
       </c>
       <c r="E6">
-        <v>10.40880507459398</v>
+        <v>13.88951666007131</v>
       </c>
       <c r="F6">
-        <v>19.71101501737029</v>
+        <v>28.81783344828334</v>
       </c>
       <c r="G6">
-        <v>20.4222090363583</v>
+        <v>27.68609753534222</v>
       </c>
       <c r="H6">
-        <v>8.405491055258366</v>
+        <v>14.08299549478396</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.076803933371464</v>
+        <v>9.773860477172255</v>
       </c>
       <c r="K6">
-        <v>14.02458319242103</v>
+        <v>9.617487806571647</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.58457726742152</v>
+        <v>18.11735758680478</v>
       </c>
       <c r="O6">
-        <v>13.50065151549406</v>
+        <v>21.28213240794456</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.676619369356648</v>
+        <v>7.674808353396602</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.533548014320887</v>
+        <v>9.922684530847411</v>
       </c>
       <c r="E7">
-        <v>10.55230769921607</v>
+        <v>13.90575976394356</v>
       </c>
       <c r="F7">
-        <v>19.84241840228314</v>
+        <v>28.80799224871883</v>
       </c>
       <c r="G7">
-        <v>20.58333012149343</v>
+        <v>27.67686950565821</v>
       </c>
       <c r="H7">
-        <v>8.39688322970027</v>
+        <v>14.0695947230823</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.108314231051031</v>
+        <v>9.771314885056015</v>
       </c>
       <c r="K7">
-        <v>14.31179425195839</v>
+        <v>9.733248286509019</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.54594956391116</v>
+        <v>18.10255639169316</v>
       </c>
       <c r="O7">
-        <v>13.5231425916624</v>
+        <v>21.26260003833392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.140654606896883</v>
+        <v>7.765637840171776</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.004182080351182</v>
+        <v>9.991578770384017</v>
       </c>
       <c r="E8">
-        <v>11.17551566898643</v>
+        <v>13.98366883388876</v>
       </c>
       <c r="F8">
-        <v>20.44903204112144</v>
+        <v>28.78036716093229</v>
       </c>
       <c r="G8">
-        <v>21.33070927763494</v>
+        <v>27.65622430177129</v>
       </c>
       <c r="H8">
-        <v>8.370912298807987</v>
+        <v>14.01544177963327</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.252567296895392</v>
+        <v>9.763496611136603</v>
       </c>
       <c r="K8">
-        <v>15.51305996643409</v>
+        <v>10.22920023321918</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.3831448159141</v>
+        <v>18.04117470299423</v>
       </c>
       <c r="O8">
-        <v>13.64782498904141</v>
+        <v>21.18662884634522</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.992352910528538</v>
+        <v>7.954555439031989</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.878274666751654</v>
+        <v>10.13912369891071</v>
       </c>
       <c r="E9">
-        <v>12.35045949228568</v>
+        <v>14.15801448204709</v>
       </c>
       <c r="F9">
-        <v>21.72757083315105</v>
+        <v>28.78300097761393</v>
       </c>
       <c r="G9">
-        <v>22.91738684371307</v>
+        <v>27.68805621424058</v>
       </c>
       <c r="H9">
-        <v>8.366286859929579</v>
+        <v>13.92716664708085</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.552666855204841</v>
+        <v>9.760402219964904</v>
       </c>
       <c r="K9">
-        <v>17.6271012734888</v>
+        <v>11.13989215454348</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.09191594299274</v>
+        <v>17.93488200431752</v>
       </c>
       <c r="O9">
-        <v>13.98829845273696</v>
+        <v>21.07453452363423</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.621965569161709</v>
+        <v>8.098687366860807</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.485208394060978</v>
+        <v>10.25440416961667</v>
       </c>
       <c r="E10">
-        <v>13.17707265613731</v>
+        <v>14.2984342341412</v>
       </c>
       <c r="F10">
-        <v>22.71448110806164</v>
+        <v>28.81950342726159</v>
       </c>
       <c r="G10">
-        <v>24.14788237644124</v>
+        <v>27.75552247163033</v>
       </c>
       <c r="H10">
-        <v>8.39400709956452</v>
+        <v>13.87324612950033</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.782296650850133</v>
+        <v>9.76554906507276</v>
       </c>
       <c r="K10">
-        <v>19.03119738864059</v>
+        <v>11.76502725463668</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.89562674591973</v>
+        <v>17.86531605557566</v>
       </c>
       <c r="O10">
-        <v>14.30044890595238</v>
+        <v>21.01478889754749</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.92902642266524</v>
+        <v>8.165142715843395</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.75280289007125</v>
+        <v>10.30818223547524</v>
       </c>
       <c r="E11">
-        <v>13.54392105224183</v>
+        <v>14.36480085170023</v>
       </c>
       <c r="F11">
-        <v>23.17241264118012</v>
+        <v>28.84358060397141</v>
       </c>
       <c r="G11">
-        <v>24.71989452685292</v>
+        <v>27.79574422357594</v>
       </c>
       <c r="H11">
-        <v>8.413995474627606</v>
+        <v>13.85109298595225</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.88846984160091</v>
+        <v>9.769490760150321</v>
       </c>
       <c r="K11">
-        <v>19.63749205296355</v>
+        <v>12.03880898853374</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.81032344218847</v>
+        <v>17.83550905639827</v>
       </c>
       <c r="O11">
-        <v>14.4565177389289</v>
+        <v>20.99254099665347</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.042818568841275</v>
+        <v>8.190412520538402</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.852857093976414</v>
+        <v>10.32872475162348</v>
       </c>
       <c r="E12">
-        <v>13.68143725592263</v>
+        <v>14.39027293410531</v>
       </c>
       <c r="F12">
-        <v>23.34700474905072</v>
+        <v>28.85376770863856</v>
       </c>
       <c r="G12">
-        <v>24.93812335264168</v>
+        <v>27.81233892006992</v>
       </c>
       <c r="H12">
-        <v>8.422676267384272</v>
+        <v>13.84304594781106</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.928899374201211</v>
+        <v>9.77121233643193</v>
       </c>
       <c r="K12">
-        <v>19.86242090510472</v>
+        <v>12.14088558157565</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.77861042023885</v>
+        <v>17.82448552724511</v>
       </c>
       <c r="O12">
-        <v>14.51767953766526</v>
+        <v>20.98482676799748</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.018421552067988</v>
+        <v>8.184965932339175</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.831366229068861</v>
+        <v>10.32429286943926</v>
       </c>
       <c r="E13">
-        <v>13.65188411338872</v>
+        <v>14.3847722058916</v>
       </c>
       <c r="F13">
-        <v>23.3093521966684</v>
+        <v>28.8515262516046</v>
       </c>
       <c r="G13">
-        <v>24.89105389630414</v>
+        <v>27.80870444108133</v>
       </c>
       <c r="H13">
-        <v>8.420756459478987</v>
+        <v>13.84476381230063</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.920182523525541</v>
+        <v>9.770831402275219</v>
       </c>
       <c r="K13">
-        <v>19.81418565278354</v>
+        <v>12.11897374795828</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.78541389781982</v>
+        <v>17.82684792274143</v>
       </c>
       <c r="O13">
-        <v>14.50441498951819</v>
+        <v>20.98645654050669</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.938437844149755</v>
+        <v>8.167219714121297</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.76106029870974</v>
+        <v>10.30986879722632</v>
       </c>
       <c r="E14">
-        <v>13.55526308078496</v>
+        <v>14.36688973331279</v>
       </c>
       <c r="F14">
-        <v>23.18675330566636</v>
+        <v>28.84439729853775</v>
       </c>
       <c r="G14">
-        <v>24.73781662712834</v>
+        <v>27.7970821977518</v>
       </c>
       <c r="H14">
-        <v>8.414687080722226</v>
+        <v>13.85042409808466</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.891791635132869</v>
+        <v>9.769627814214346</v>
       </c>
       <c r="K14">
-        <v>19.65609046831874</v>
+        <v>12.04723932392633</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.80770248145571</v>
+        <v>17.83459686232023</v>
       </c>
       <c r="O14">
-        <v>14.46150803156335</v>
+        <v>20.99189209361041</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.889122562661864</v>
+        <v>8.15636257804878</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.71782800707758</v>
+        <v>10.30105638075053</v>
       </c>
       <c r="E15">
-        <v>13.49589530402545</v>
+        <v>14.3559800164898</v>
       </c>
       <c r="F15">
-        <v>23.11180901764001</v>
+        <v>28.84016973958553</v>
       </c>
       <c r="G15">
-        <v>24.64416143969014</v>
+        <v>27.79014057760082</v>
       </c>
       <c r="H15">
-        <v>8.41111567701599</v>
+        <v>13.85393571669078</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.874429940131799</v>
+        <v>9.768920359205218</v>
       </c>
       <c r="K15">
-        <v>19.55864572711653</v>
+        <v>12.00308967685316</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.82143215174791</v>
+        <v>17.83937763718019</v>
       </c>
       <c r="O15">
-        <v>14.43549585429745</v>
+        <v>20.99531410540339</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.601549403525206</v>
+        <v>8.094360254907357</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.467544366565917</v>
+        <v>10.25091532737448</v>
       </c>
       <c r="E16">
-        <v>13.15290617012764</v>
+        <v>14.29414562804854</v>
       </c>
       <c r="F16">
-        <v>22.68472546731028</v>
+        <v>28.81807989196418</v>
       </c>
       <c r="G16">
-        <v>24.1107341373899</v>
+        <v>27.75308512482438</v>
       </c>
       <c r="H16">
-        <v>8.392853616019522</v>
+        <v>13.87474171586252</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.775390514585953</v>
+        <v>9.765323570926016</v>
       </c>
       <c r="K16">
-        <v>18.99092191681206</v>
+        <v>11.74691512530133</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.90128310603639</v>
+        <v>17.86730095647094</v>
       </c>
       <c r="O16">
-        <v>14.29053600322142</v>
+        <v>21.01634220559104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.420681567577077</v>
+        <v>8.05653498481794</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.311782532851518</v>
+        <v>10.22048765938105</v>
       </c>
       <c r="E17">
-        <v>12.94007857996318</v>
+        <v>14.25683751241794</v>
       </c>
       <c r="F17">
-        <v>22.4249439347928</v>
+        <v>28.80643913091988</v>
       </c>
       <c r="G17">
-        <v>23.78652655934353</v>
+        <v>27.7327896105754</v>
       </c>
       <c r="H17">
-        <v>8.383576285709225</v>
+        <v>13.88811416369499</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.715055486333816</v>
+        <v>9.763526146837352</v>
       </c>
       <c r="K17">
-        <v>18.63433297540486</v>
+        <v>11.58698998858465</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.95130157145713</v>
+        <v>17.88490149351039</v>
       </c>
       <c r="O17">
-        <v>14.20524088292641</v>
+        <v>21.03050630523277</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.323645587971413</v>
+        <v>8.034863957547664</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.221394643030454</v>
+        <v>10.20311313067484</v>
       </c>
       <c r="E18">
-        <v>12.81680521393643</v>
+        <v>14.23561422803415</v>
       </c>
       <c r="F18">
-        <v>22.27637576459776</v>
+        <v>28.80044733568558</v>
       </c>
       <c r="G18">
-        <v>23.6012119518281</v>
+        <v>27.72201381509351</v>
       </c>
       <c r="H18">
-        <v>8.378931673133387</v>
+        <v>13.89602922694574</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.680514900529692</v>
+        <v>9.76264302996862</v>
       </c>
       <c r="K18">
-        <v>18.42617866852957</v>
+        <v>11.49401179752829</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.98044534011014</v>
+        <v>17.8951979834529</v>
       </c>
       <c r="O18">
-        <v>14.15750381256254</v>
+        <v>21.03911714303776</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.294029051604859</v>
+        <v>8.027541839584112</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.190655714768042</v>
+        <v>10.19725259716684</v>
       </c>
       <c r="E19">
-        <v>12.77492191762521</v>
+        <v>14.22846933246399</v>
       </c>
       <c r="F19">
-        <v>22.22622279522338</v>
+        <v>28.79853960217764</v>
       </c>
       <c r="G19">
-        <v>23.53867158449167</v>
+        <v>27.71851966700142</v>
       </c>
       <c r="H19">
-        <v>8.377476300121598</v>
+        <v>13.89874752364828</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.668848673049515</v>
+        <v>9.762369941092908</v>
       </c>
       <c r="K19">
-        <v>18.35517678383703</v>
+        <v>11.46236280060199</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.99037678420256</v>
+        <v>17.89871395419948</v>
       </c>
       <c r="O19">
-        <v>14.14156671469715</v>
+        <v>21.04211227006695</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.440105146914552</v>
+        <v>8.060552913775142</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.32844665387341</v>
+        <v>10.22371372990261</v>
       </c>
       <c r="E20">
-        <v>12.96282414644845</v>
+        <v>14.26078479080017</v>
       </c>
       <c r="F20">
-        <v>22.45251083060519</v>
+        <v>28.80760551519002</v>
       </c>
       <c r="G20">
-        <v>23.820919925385</v>
+        <v>27.73485724360412</v>
       </c>
       <c r="H20">
-        <v>8.384491942141747</v>
+        <v>13.88666750154225</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.721461599343686</v>
+        <v>9.763701895568879</v>
       </c>
       <c r="K20">
-        <v>18.67260854255591</v>
+        <v>11.60411768941346</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.94593815576042</v>
+        <v>17.88300997344759</v>
       </c>
       <c r="O20">
-        <v>14.21418352954258</v>
+        <v>21.0289504761158</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.961998259227764</v>
+        <v>8.17242955423796</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.781745923159898</v>
+        <v>10.31410078279365</v>
       </c>
       <c r="E21">
-        <v>13.58368161234383</v>
+        <v>14.37213315009372</v>
       </c>
       <c r="F21">
-        <v>23.22273226679318</v>
+        <v>28.84646226035989</v>
       </c>
       <c r="G21">
-        <v>24.78278320570116</v>
+        <v>27.80045899015904</v>
       </c>
       <c r="H21">
-        <v>8.416439232656423</v>
+        <v>13.84875225444963</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.900124816121892</v>
+        <v>9.769975133922278</v>
       </c>
       <c r="K21">
-        <v>19.70265331192641</v>
+        <v>12.06835339718652</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.80113965048735</v>
+        <v>17.83231365872114</v>
       </c>
       <c r="O21">
-        <v>14.47405460512435</v>
+        <v>20.99027624420922</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.288611185601942</v>
+        <v>8.24614645521963</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.07053622485085</v>
+        <v>10.37420427009307</v>
       </c>
       <c r="E22">
-        <v>13.98125409254851</v>
+        <v>14.44688186819485</v>
       </c>
       <c r="F22">
-        <v>23.73297161354039</v>
+        <v>28.87808882042834</v>
       </c>
       <c r="G22">
-        <v>25.4208066976893</v>
+        <v>27.85127695343517</v>
       </c>
       <c r="H22">
-        <v>8.443821375961695</v>
+        <v>13.82596527732157</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.018188435025503</v>
+        <v>9.775408861015489</v>
       </c>
       <c r="K22">
-        <v>20.34868189230454</v>
+        <v>12.36241240608656</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.70995014636476</v>
+        <v>17.80071762154445</v>
       </c>
       <c r="O22">
-        <v>14.65592797713199</v>
+        <v>20.969142674963</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.115608457418407</v>
+        <v>8.206755187227623</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.917101954972432</v>
+        <v>10.34203640666378</v>
       </c>
       <c r="E23">
-        <v>13.76983430483825</v>
+        <v>14.40681215815018</v>
       </c>
       <c r="F23">
-        <v>23.46005301936406</v>
+        <v>28.86064084058637</v>
       </c>
       <c r="G23">
-        <v>25.07946490398342</v>
+        <v>27.82343043726464</v>
       </c>
       <c r="H23">
-        <v>8.428595341118221</v>
+        <v>13.83794468766789</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.955063910196538</v>
+        <v>9.772387162727602</v>
       </c>
       <c r="K23">
-        <v>20.00636683904744</v>
+        <v>12.20634497144917</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.75829879851282</v>
+        <v>17.81744061750884</v>
       </c>
       <c r="O23">
-        <v>14.55774638870899</v>
+        <v>20.98004259462058</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.431329012942786</v>
+        <v>8.058736172016159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.320915411665091</v>
+        <v>10.22225485247631</v>
       </c>
       <c r="E24">
-        <v>12.95254372248727</v>
+        <v>14.25899952206895</v>
       </c>
       <c r="F24">
-        <v>22.44004538763973</v>
+        <v>28.80707601008008</v>
       </c>
       <c r="G24">
-        <v>23.80536732010318</v>
+        <v>27.73391968654749</v>
       </c>
       <c r="H24">
-        <v>8.384075831475773</v>
+        <v>13.88732083022192</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.718564936604526</v>
+        <v>9.763621971480035</v>
       </c>
       <c r="K24">
-        <v>18.65531395960941</v>
+        <v>11.59637747416522</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.9483617502334</v>
+        <v>17.88386457606965</v>
       </c>
       <c r="O24">
-        <v>14.21013651206857</v>
+        <v>21.02965240968975</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.76878611889479</v>
+        <v>7.90241954422569</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.647664020339374</v>
+        <v>10.09794778903954</v>
       </c>
       <c r="E25">
-        <v>12.03854806093171</v>
+        <v>14.10862188535001</v>
       </c>
       <c r="F25">
-        <v>21.37285670843004</v>
+        <v>28.77620938101921</v>
       </c>
       <c r="G25">
-        <v>22.47612364788533</v>
+        <v>27.67169588403157</v>
       </c>
       <c r="H25">
-        <v>8.362283032609746</v>
+        <v>13.94912783871837</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.469778392248561</v>
+        <v>9.759932866096459</v>
       </c>
       <c r="K25">
-        <v>17.08130753847704</v>
+        <v>10.90084340329563</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.16764443551585</v>
+        <v>17.96213566221779</v>
       </c>
       <c r="O25">
-        <v>13.88552736427645</v>
+        <v>21.10089658301655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.791024514463149</v>
+        <v>7.262673997600606</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.01111283468003</v>
+        <v>8.128637910097227</v>
       </c>
       <c r="E2">
-        <v>14.00626619514807</v>
+        <v>11.34152321330051</v>
       </c>
       <c r="F2">
-        <v>28.77672641412201</v>
+        <v>20.61966053337607</v>
       </c>
       <c r="G2">
-        <v>27.65552021426359</v>
+        <v>21.54173802084679</v>
       </c>
       <c r="H2">
-        <v>14.00198121041143</v>
+        <v>8.366902031184006</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.762207578314579</v>
+        <v>6.292868012693146</v>
       </c>
       <c r="K2">
-        <v>10.35965400867802</v>
+        <v>15.82229300464442</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.02549802065435</v>
+        <v>12.340910875676</v>
       </c>
       <c r="O2">
-        <v>21.16853553241575</v>
+        <v>13.68795544341116</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.718250230697997</v>
+        <v>6.904522399190517</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.955422248793003</v>
+        <v>7.764144726974068</v>
       </c>
       <c r="E3">
-        <v>13.94238617244795</v>
+        <v>10.85671455054052</v>
       </c>
       <c r="F3">
-        <v>28.7915958502273</v>
+        <v>20.13173062466329</v>
       </c>
       <c r="G3">
-        <v>27.66304705817157</v>
+        <v>20.93913899987185</v>
       </c>
       <c r="H3">
-        <v>14.04237902774122</v>
+        <v>8.381967732626244</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.766875411747282</v>
+        <v>6.177329884694236</v>
       </c>
       <c r="K3">
-        <v>9.976793225029994</v>
+        <v>14.90717337310551</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.0720333991718</v>
+        <v>12.46551091069717</v>
       </c>
       <c r="O3">
-        <v>21.22380505608925</v>
+        <v>13.5787482504879</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.675042152190723</v>
+        <v>6.67787987604359</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.922859528833959</v>
+        <v>7.534820368467411</v>
       </c>
       <c r="E4">
-        <v>13.90595327354747</v>
+        <v>10.55398196703288</v>
       </c>
       <c r="F4">
-        <v>28.80788573680208</v>
+        <v>19.84397093720127</v>
       </c>
       <c r="G4">
-        <v>27.67677249694476</v>
+        <v>20.5852357604246</v>
       </c>
       <c r="H4">
-        <v>14.06944064302012</v>
+        <v>8.396788934184737</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.771286968313774</v>
+        <v>6.108685854402421</v>
       </c>
       <c r="K4">
-        <v>9.734595137235482</v>
+        <v>14.31511904653597</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.10238535455759</v>
+        <v>12.54550173793347</v>
       </c>
       <c r="O4">
-        <v>21.26237707074541</v>
+        <v>13.52341943858325</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.657825488934114</v>
+        <v>6.583959843570774</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.910011044993201</v>
+        <v>7.440113880142003</v>
       </c>
       <c r="E5">
-        <v>13.8918200475837</v>
+        <v>10.4295299644486</v>
       </c>
       <c r="F5">
-        <v>28.81632367889824</v>
+        <v>19.7297863798602</v>
       </c>
       <c r="G5">
-        <v>27.68465135212408</v>
+        <v>20.44520444417254</v>
       </c>
       <c r="H5">
-        <v>14.08103585604695</v>
+        <v>8.404182866530187</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.773473835331908</v>
+        <v>6.081312436807195</v>
       </c>
       <c r="K5">
-        <v>9.634246076997725</v>
+        <v>14.06634306984565</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.11520225271807</v>
+        <v>12.57896792587944</v>
       </c>
       <c r="O5">
-        <v>21.27925897922249</v>
+        <v>13.50374683157313</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.654990857280001</v>
+        <v>6.5682744683321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.907903301509888</v>
+        <v>7.424316419875391</v>
       </c>
       <c r="E6">
-        <v>13.88951666007131</v>
+        <v>10.40880507459391</v>
       </c>
       <c r="F6">
-        <v>28.81783344828334</v>
+        <v>19.71101501737004</v>
       </c>
       <c r="G6">
-        <v>27.68609753534222</v>
+        <v>20.42220903635786</v>
       </c>
       <c r="H6">
-        <v>14.08299549478396</v>
+        <v>8.405491055258238</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.773860477172255</v>
+        <v>6.076803933371443</v>
       </c>
       <c r="K6">
-        <v>9.617487806571647</v>
+        <v>14.02458319242113</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.11735758680478</v>
+        <v>12.58457726742149</v>
       </c>
       <c r="O6">
-        <v>21.28213240794456</v>
+        <v>13.50065151549381</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.674808353396602</v>
+        <v>6.67661936935664</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.922684530847411</v>
+        <v>7.533548014320909</v>
       </c>
       <c r="E7">
-        <v>13.90575976394356</v>
+        <v>10.55230769921611</v>
       </c>
       <c r="F7">
-        <v>28.80799224871883</v>
+        <v>19.84241840228317</v>
       </c>
       <c r="G7">
-        <v>27.67686950565821</v>
+        <v>20.58333012149345</v>
       </c>
       <c r="H7">
-        <v>14.0695947230823</v>
+        <v>8.396883229700268</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.771314885056015</v>
+        <v>6.108314231051081</v>
       </c>
       <c r="K7">
-        <v>9.733248286509019</v>
+        <v>14.31179425195839</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.10255639169316</v>
+        <v>12.5459495639112</v>
       </c>
       <c r="O7">
-        <v>21.26260003833392</v>
+        <v>13.52314259166241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.765637840171776</v>
+        <v>7.140654606896896</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.991578770384017</v>
+        <v>8.004182080351269</v>
       </c>
       <c r="E8">
-        <v>13.98366883388876</v>
+        <v>11.17551566898643</v>
       </c>
       <c r="F8">
-        <v>28.78036716093229</v>
+        <v>20.44903204112139</v>
       </c>
       <c r="G8">
-        <v>27.65622430177129</v>
+        <v>21.33070927763471</v>
       </c>
       <c r="H8">
-        <v>14.01544177963327</v>
+        <v>8.370912298807987</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.763496611136603</v>
+        <v>6.252567296895371</v>
       </c>
       <c r="K8">
-        <v>10.22920023321918</v>
+        <v>15.51305996643414</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.04117470299423</v>
+        <v>12.38314481591404</v>
       </c>
       <c r="O8">
-        <v>21.18662884634522</v>
+        <v>13.64782498904133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.954555439031989</v>
+        <v>7.992352910528548</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.13912369891071</v>
+        <v>8.878274666751606</v>
       </c>
       <c r="E9">
-        <v>14.15801448204709</v>
+        <v>12.35045949228565</v>
       </c>
       <c r="F9">
-        <v>28.78300097761393</v>
+        <v>21.72757083315093</v>
       </c>
       <c r="G9">
-        <v>27.68805621424058</v>
+        <v>22.91738684371285</v>
       </c>
       <c r="H9">
-        <v>13.92716664708085</v>
+        <v>8.366286859929579</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.760402219964904</v>
+        <v>6.552666855204829</v>
       </c>
       <c r="K9">
-        <v>11.13989215454348</v>
+        <v>17.6271012734889</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.93488200431752</v>
+        <v>12.09191594299274</v>
       </c>
       <c r="O9">
-        <v>21.07453452363423</v>
+        <v>13.98829845273684</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.098687366860807</v>
+        <v>8.621965569161768</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.25440416961667</v>
+        <v>9.485208394060978</v>
       </c>
       <c r="E10">
-        <v>14.2984342341412</v>
+        <v>13.17707265613729</v>
       </c>
       <c r="F10">
-        <v>28.81950342726159</v>
+        <v>22.71448110806158</v>
       </c>
       <c r="G10">
-        <v>27.75552247163033</v>
+        <v>24.14788237644119</v>
       </c>
       <c r="H10">
-        <v>13.87324612950033</v>
+        <v>8.394007099564378</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.76554906507276</v>
+        <v>6.782296650850101</v>
       </c>
       <c r="K10">
-        <v>11.76502725463668</v>
+        <v>19.0311973886406</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.86531605557566</v>
+        <v>11.89562674591967</v>
       </c>
       <c r="O10">
-        <v>21.01478889754749</v>
+        <v>14.30044890595231</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.165142715843395</v>
+        <v>8.929026422665249</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.30818223547524</v>
+        <v>9.75280289007126</v>
       </c>
       <c r="E11">
-        <v>14.36480085170023</v>
+        <v>13.54392105224186</v>
       </c>
       <c r="F11">
-        <v>28.84358060397141</v>
+        <v>23.17241264118009</v>
       </c>
       <c r="G11">
-        <v>27.79574422357594</v>
+        <v>24.71989452685283</v>
       </c>
       <c r="H11">
-        <v>13.85109298595225</v>
+        <v>8.413995474627567</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.769490760150321</v>
+        <v>6.88846984160091</v>
       </c>
       <c r="K11">
-        <v>12.03880898853374</v>
+        <v>19.63749205296358</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.83550905639827</v>
+        <v>11.81032344218847</v>
       </c>
       <c r="O11">
-        <v>20.99254099665347</v>
+        <v>14.45651773892883</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.190412520538402</v>
+        <v>9.042818568841334</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.32872475162348</v>
+        <v>9.852857093976422</v>
       </c>
       <c r="E12">
-        <v>14.39027293410531</v>
+        <v>13.68143725592263</v>
       </c>
       <c r="F12">
-        <v>28.85376770863856</v>
+        <v>23.34700474905071</v>
       </c>
       <c r="G12">
-        <v>27.81233892006992</v>
+        <v>24.9381233526416</v>
       </c>
       <c r="H12">
-        <v>13.84304594781106</v>
+        <v>8.422676267384272</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.77121233643193</v>
+        <v>6.928899374201154</v>
       </c>
       <c r="K12">
-        <v>12.14088558157565</v>
+        <v>19.86242090510479</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.82448552724511</v>
+        <v>11.77861042023885</v>
       </c>
       <c r="O12">
-        <v>20.98482676799748</v>
+        <v>14.51767953766519</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.184965932339175</v>
+        <v>9.018421552067961</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.32429286943926</v>
+        <v>9.83136622906887</v>
       </c>
       <c r="E13">
-        <v>14.3847722058916</v>
+        <v>13.65188411338875</v>
       </c>
       <c r="F13">
-        <v>28.8515262516046</v>
+        <v>23.30935219666831</v>
       </c>
       <c r="G13">
-        <v>27.80870444108133</v>
+        <v>24.89105389630402</v>
       </c>
       <c r="H13">
-        <v>13.84476381230063</v>
+        <v>8.4207564594789</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.770831402275219</v>
+        <v>6.920182523525545</v>
       </c>
       <c r="K13">
-        <v>12.11897374795828</v>
+        <v>19.81418565278365</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.82684792274143</v>
+        <v>11.78541389781978</v>
       </c>
       <c r="O13">
-        <v>20.98645654050669</v>
+        <v>14.50441498951807</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.167219714121297</v>
+        <v>8.938437844149769</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.30986879722632</v>
+        <v>9.761060298709754</v>
       </c>
       <c r="E14">
-        <v>14.36688973331279</v>
+        <v>13.55526308078496</v>
       </c>
       <c r="F14">
-        <v>28.84439729853775</v>
+        <v>23.18675330566634</v>
       </c>
       <c r="G14">
-        <v>27.7970821977518</v>
+        <v>24.73781662712835</v>
       </c>
       <c r="H14">
-        <v>13.85042409808466</v>
+        <v>8.414687080722189</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.769627814214346</v>
+        <v>6.891791635132866</v>
       </c>
       <c r="K14">
-        <v>12.04723932392633</v>
+        <v>19.65609046831883</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.83459686232023</v>
+        <v>11.80770248145574</v>
       </c>
       <c r="O14">
-        <v>20.99189209361041</v>
+        <v>14.46150803156332</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.15636257804878</v>
+        <v>8.889122562661884</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.30105638075053</v>
+        <v>9.71782800707761</v>
       </c>
       <c r="E15">
-        <v>14.3559800164898</v>
+        <v>13.49589530402547</v>
       </c>
       <c r="F15">
-        <v>28.84016973958553</v>
+        <v>23.11180901764008</v>
       </c>
       <c r="G15">
-        <v>27.79014057760082</v>
+        <v>24.6441614396902</v>
       </c>
       <c r="H15">
-        <v>13.85393571669078</v>
+        <v>8.411115677016001</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.768920359205218</v>
+        <v>6.874429940131837</v>
       </c>
       <c r="K15">
-        <v>12.00308967685316</v>
+        <v>19.55864572711646</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.83937763718019</v>
+        <v>11.82143215174791</v>
       </c>
       <c r="O15">
-        <v>20.99531410540339</v>
+        <v>14.43549585429754</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.094360254907357</v>
+        <v>8.601549403525233</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.25091532737448</v>
+        <v>9.46754436656591</v>
       </c>
       <c r="E16">
-        <v>14.29414562804854</v>
+        <v>13.15290617012764</v>
       </c>
       <c r="F16">
-        <v>28.81807989196418</v>
+        <v>22.68472546731018</v>
       </c>
       <c r="G16">
-        <v>27.75308512482438</v>
+        <v>24.11073413738978</v>
       </c>
       <c r="H16">
-        <v>13.87474171586252</v>
+        <v>8.392853616019423</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.765323570926016</v>
+        <v>6.775390514585969</v>
       </c>
       <c r="K16">
-        <v>11.74691512530133</v>
+        <v>18.99092191681211</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.86730095647094</v>
+        <v>11.90128310603633</v>
       </c>
       <c r="O16">
-        <v>21.01634220559104</v>
+        <v>14.29053600322131</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.05653498481794</v>
+        <v>8.420681567577086</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.22048765938105</v>
+        <v>9.311782532851522</v>
       </c>
       <c r="E17">
-        <v>14.25683751241794</v>
+        <v>12.94007857996318</v>
       </c>
       <c r="F17">
-        <v>28.80643913091988</v>
+        <v>22.42494393479274</v>
       </c>
       <c r="G17">
-        <v>27.7327896105754</v>
+        <v>23.78652655934351</v>
       </c>
       <c r="H17">
-        <v>13.88811416369499</v>
+        <v>8.383576285709129</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.763526146837352</v>
+        <v>6.715055486333791</v>
       </c>
       <c r="K17">
-        <v>11.58698998858465</v>
+        <v>18.63433297540492</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.88490149351039</v>
+        <v>11.95130157145714</v>
       </c>
       <c r="O17">
-        <v>21.03050630523277</v>
+        <v>14.20524088292635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.034863957547664</v>
+        <v>8.32364558797142</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.20311313067484</v>
+        <v>9.221394643030424</v>
       </c>
       <c r="E18">
-        <v>14.23561422803415</v>
+        <v>12.81680521393641</v>
       </c>
       <c r="F18">
-        <v>28.80044733568558</v>
+        <v>22.27637576459763</v>
       </c>
       <c r="G18">
-        <v>27.72201381509351</v>
+        <v>23.60121195182791</v>
       </c>
       <c r="H18">
-        <v>13.89602922694574</v>
+        <v>8.37893167313333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.76264302996862</v>
+        <v>6.680514900529687</v>
       </c>
       <c r="K18">
-        <v>11.49401179752829</v>
+        <v>18.42617866852964</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.8951979834529</v>
+        <v>11.98044534011014</v>
       </c>
       <c r="O18">
-        <v>21.03911714303776</v>
+        <v>14.15750381256243</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.027541839584112</v>
+        <v>8.294029051604895</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.19725259716684</v>
+        <v>9.19065571476802</v>
       </c>
       <c r="E19">
-        <v>14.22846933246399</v>
+        <v>12.77492191762522</v>
       </c>
       <c r="F19">
-        <v>28.79853960217764</v>
+        <v>22.22622279522333</v>
       </c>
       <c r="G19">
-        <v>27.71851966700142</v>
+        <v>23.53867158449157</v>
       </c>
       <c r="H19">
-        <v>13.89874752364828</v>
+        <v>8.377476300121604</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.762369941092908</v>
+        <v>6.66884867304952</v>
       </c>
       <c r="K19">
-        <v>11.46236280060199</v>
+        <v>18.35517678383707</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.89871395419948</v>
+        <v>11.99037678420255</v>
       </c>
       <c r="O19">
-        <v>21.04211227006695</v>
+        <v>14.14156671469711</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.060552913775142</v>
+        <v>8.440105146914588</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.22371372990261</v>
+        <v>9.328446653873435</v>
       </c>
       <c r="E20">
-        <v>14.26078479080017</v>
+        <v>12.96282414644844</v>
       </c>
       <c r="F20">
-        <v>28.80760551519002</v>
+        <v>22.45251083060515</v>
       </c>
       <c r="G20">
-        <v>27.73485724360412</v>
+        <v>23.82091992538493</v>
       </c>
       <c r="H20">
-        <v>13.88666750154225</v>
+        <v>8.384491942141759</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.763701895568879</v>
+        <v>6.721461599343685</v>
       </c>
       <c r="K20">
-        <v>11.60411768941346</v>
+        <v>18.67260854255598</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.88300997344759</v>
+        <v>11.94593815576049</v>
       </c>
       <c r="O20">
-        <v>21.0289504761158</v>
+        <v>14.21418352954254</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.17242955423796</v>
+        <v>8.961998259227755</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.31410078279365</v>
+        <v>9.78174592315994</v>
       </c>
       <c r="E21">
-        <v>14.37213315009372</v>
+        <v>13.58368161234381</v>
       </c>
       <c r="F21">
-        <v>28.84646226035989</v>
+        <v>23.22273226679315</v>
       </c>
       <c r="G21">
-        <v>27.80045899015904</v>
+        <v>24.78278320570105</v>
       </c>
       <c r="H21">
-        <v>13.84875225444963</v>
+        <v>8.41643923265632</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.769975133922278</v>
+        <v>6.900124816121838</v>
       </c>
       <c r="K21">
-        <v>12.06835339718652</v>
+        <v>19.70265331192646</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.83231365872114</v>
+        <v>11.80113965048732</v>
       </c>
       <c r="O21">
-        <v>20.99027624420922</v>
+        <v>14.47405460512427</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.24614645521963</v>
+        <v>9.288611185601958</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.37420427009307</v>
+        <v>10.07053622485088</v>
       </c>
       <c r="E22">
-        <v>14.44688186819485</v>
+        <v>13.98125409254851</v>
       </c>
       <c r="F22">
-        <v>28.87808882042834</v>
+        <v>23.73297161354035</v>
       </c>
       <c r="G22">
-        <v>27.85127695343517</v>
+        <v>25.42080669768927</v>
       </c>
       <c r="H22">
-        <v>13.82596527732157</v>
+        <v>8.443821375961651</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.775408861015489</v>
+        <v>7.018188435025465</v>
       </c>
       <c r="K22">
-        <v>12.36241240608656</v>
+        <v>20.34868189230456</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.80071762154445</v>
+        <v>11.70995014636463</v>
       </c>
       <c r="O22">
-        <v>20.969142674963</v>
+        <v>14.6559279771319</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.206755187227623</v>
+        <v>9.115608457418432</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.34203640666378</v>
+        <v>9.917101954972447</v>
       </c>
       <c r="E23">
-        <v>14.40681215815018</v>
+        <v>13.76983430483824</v>
       </c>
       <c r="F23">
-        <v>28.86064084058637</v>
+        <v>23.460053019364</v>
       </c>
       <c r="G23">
-        <v>27.82343043726464</v>
+        <v>25.07946490398341</v>
       </c>
       <c r="H23">
-        <v>13.83794468766789</v>
+        <v>8.428595341118109</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.772387162727602</v>
+        <v>6.95506391019652</v>
       </c>
       <c r="K23">
-        <v>12.20634497144917</v>
+        <v>20.00636683904747</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.81744061750884</v>
+        <v>11.7582987985128</v>
       </c>
       <c r="O23">
-        <v>20.98004259462058</v>
+        <v>14.55774638870893</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.058736172016159</v>
+        <v>8.431329012942774</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.22225485247631</v>
+        <v>9.320915411665114</v>
       </c>
       <c r="E24">
-        <v>14.25899952206895</v>
+        <v>12.95254372248726</v>
       </c>
       <c r="F24">
-        <v>28.80707601008008</v>
+        <v>22.44004538763975</v>
       </c>
       <c r="G24">
-        <v>27.73391968654749</v>
+        <v>23.8053673201032</v>
       </c>
       <c r="H24">
-        <v>13.88732083022192</v>
+        <v>8.384075831475766</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.763621971480035</v>
+        <v>6.718564936604497</v>
       </c>
       <c r="K24">
-        <v>11.59637747416522</v>
+        <v>18.6553139596094</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.88386457606965</v>
+        <v>11.94836175023339</v>
       </c>
       <c r="O24">
-        <v>21.02965240968975</v>
+        <v>14.21013651206857</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.90241954422569</v>
+        <v>7.768786118894788</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.09794778903954</v>
+        <v>8.647664020339455</v>
       </c>
       <c r="E25">
-        <v>14.10862188535001</v>
+        <v>12.0385480609317</v>
       </c>
       <c r="F25">
-        <v>28.77620938101921</v>
+        <v>21.3728567084299</v>
       </c>
       <c r="G25">
-        <v>27.67169588403157</v>
+        <v>22.47612364788522</v>
       </c>
       <c r="H25">
-        <v>13.94912783871837</v>
+        <v>8.362283032609644</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.759932866096459</v>
+        <v>6.469778392248579</v>
       </c>
       <c r="K25">
-        <v>10.90084340329563</v>
+        <v>17.08130753847704</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.96213566221779</v>
+        <v>12.16764443551569</v>
       </c>
       <c r="O25">
-        <v>21.10089658301655</v>
+        <v>13.88552736427629</v>
       </c>
     </row>
   </sheetData>
